--- a/doc/Results/CullingResults_UNIFORM.xlsx
+++ b/doc/Results/CullingResults_UNIFORM.xlsx
@@ -16,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>n Frustum</t>
-  </si>
-  <si>
-    <t>t BVH</t>
   </si>
   <si>
     <t>Run number</t>
@@ -63,7 +60,13 @@
     <t>hierarchy_UNIFORM_500.dot</t>
   </si>
   <si>
-    <t>t Bruteforce</t>
+    <t>t BVH (ms)</t>
+  </si>
+  <si>
+    <t>t Bruteforce (ms)</t>
+  </si>
+  <si>
+    <t>AABB_Surface/UniverseSurface</t>
   </si>
 </sst>
 </file>
@@ -108,6 +111,1287 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Culling Time / Number of Frustums (500</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Primitives)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'500 Primitives'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t BVH (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'500 Primitives'!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'500 Primitives'!$E$2:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>7.003927</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4100599999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2941470000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.10871</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.605119999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.9162</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.63836</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.99668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.50479</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.373060000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.403230000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.205120000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.094810000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.66882</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.213280000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33.073970000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47.155850000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>55.309019999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'500 Primitives'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t Bruteforce (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'500 Primitives'!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'500 Primitives'!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>15.112500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.998059999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.544309999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.288220000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.203749999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.509700000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.068560000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.894649999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.558130000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.954139999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>117.179</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>136.9837</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>156.05549999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>174.04740000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>195.4041</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>381.07690000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>569.07249999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="80390400"/>
+        <c:axId val="80388864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="80390400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Frustums</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80388864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="80388864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Culling</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80390400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Culling</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time / Number of Frustums (1000 Primitives)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1000 Primitives'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t BVH (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1000 Primitives'!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1000 Primitives'!$E$2:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>8.9838749999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.807230000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.041919999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.041230000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.750310000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.722250000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.01108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.472470000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.39086</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.588989999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.18046</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.85501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.711079999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.262270000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.148890000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49.562550000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72.530760000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86.842749999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1000 Primitives'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t Bruteforce (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1000 Primitives'!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1000 Primitives'!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>22.624929999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.89331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.154209999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.127170000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.964020000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>114.4941</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>132.92259999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>151.47620000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>169.03749999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190.39160000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>233.90539999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>269.42610000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>309.75069999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>340.29399999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>378.86180000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="84478976"/>
+        <c:axId val="84477440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="84478976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Frustums</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84477440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="84477440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Culling</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84478976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Culling</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time / Number of Frustums (2500 Primitives)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2500 primitives'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t BVH (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2500 primitives'!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2500 primitives'!$E$2:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>13.58595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.164539999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.50263</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.95476</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.351690000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.16874</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.422039999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.664210000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.93918</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.856159999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.475960000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.508400000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.387329999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.174840000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47.9983</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96.845380000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>145.77010000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>184.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2500 primitives'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t Bruteforce (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2500 primitives'!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2500 primitives'!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>48.686459999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.47049999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>188.60040000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>236.38470000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>284.45069999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>329.26960000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>378.42570000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>423.1386</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>474.5172</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>560.2894</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="78542336"/>
+        <c:axId val="78540800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="78542336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Frustums</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78540800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="78540800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Culling Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78542336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,17 +1682,18 @@
   <dimension ref="D1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28" bestFit="1" customWidth="1"/>
   </cols>
@@ -418,28 +1703,28 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
       <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="4:13">
@@ -465,10 +1750,10 @@
         <v>0.1125</v>
       </c>
       <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
         <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="4:13">
@@ -657,6 +1942,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -664,14 +1950,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
@@ -683,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="4:13">
@@ -730,10 +2017,10 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
         <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="4:13">
@@ -917,6 +2204,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -925,13 +2213,14 @@
   <dimension ref="D1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="D1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
@@ -945,28 +2234,28 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="4:13">
@@ -992,10 +2281,10 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="L2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="4:13">
@@ -1166,5 +2455,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>